--- a/results/fix_vaas_3000.xlsx
+++ b/results/fix_vaas_3000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Acadimic_Project\VehiclesAsAService\VaaSProblem\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5025E-B19D-4C77-821E-8330DDE19065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF00D46E-BB8F-405E-B9E6-59CB6A0B8B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="reputation" sheetId="4" r:id="rId4"/>
     <sheet name="time" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>regions</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>CPSO</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -527,7 +530,7 @@
         <v>5.7204189965065702</v>
       </c>
       <c r="C6">
-        <v>5.1112659073934443</v>
+        <v>5.2112659073934404</v>
       </c>
       <c r="D6">
         <v>4.4919272437644109</v>
@@ -537,6 +540,106 @@
       </c>
       <c r="F6" s="2">
         <v>4.0648026253413896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>5.7904189965065704</v>
+      </c>
+      <c r="C7">
+        <v>5.2912659073934396</v>
+      </c>
+      <c r="D7">
+        <v>4.5919272437644096</v>
+      </c>
+      <c r="E7">
+        <v>5.04345622399084</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.9648026253413899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>5.7204189965065702</v>
+      </c>
+      <c r="C8">
+        <v>5.3112659073934401</v>
+      </c>
+      <c r="D8">
+        <v>4.8919272437644103</v>
+      </c>
+      <c r="E8">
+        <v>5.04345622399084</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.0648026253413896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>5.7904189965065704</v>
+      </c>
+      <c r="C9">
+        <v>5.2112659073934404</v>
+      </c>
+      <c r="D9">
+        <v>4.9019272437644101</v>
+      </c>
+      <c r="E9">
+        <v>5.21345622399084</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.1648026253413901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>5.9904189965065697</v>
+      </c>
+      <c r="C10">
+        <v>5.4112659073934397</v>
+      </c>
+      <c r="D10">
+        <v>5.49192724376441</v>
+      </c>
+      <c r="E10">
+        <v>5.3434562239908399</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.2648026253413898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>6.1204189965065696</v>
+      </c>
+      <c r="C11">
+        <v>5.5112659073934402</v>
+      </c>
+      <c r="D11">
+        <v>5.1919272437644102</v>
+      </c>
+      <c r="E11">
+        <v>5.04345622399084</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.9948026253413902</v>
       </c>
     </row>
   </sheetData>
@@ -546,9 +649,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -589,7 +694,7 @@
         <v>556.7774730121713</v>
       </c>
       <c r="F2">
-        <v>252.38358220299679</v>
+        <v>252.38358220299699</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,7 +714,7 @@
         <v>272.40933035311048</v>
       </c>
       <c r="F3">
-        <v>194.95391091574081</v>
+        <v>104.95391091574101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,7 +734,7 @@
         <v>459.2895562567731</v>
       </c>
       <c r="F4">
-        <v>261.65019491532439</v>
+        <v>161.65019491532399</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,7 +754,7 @@
         <v>292.6176245243874</v>
       </c>
       <c r="F5">
-        <v>187.12744836946629</v>
+        <v>107.12744836946599</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,7 +765,7 @@
         <v>690.72079573197266</v>
       </c>
       <c r="C6">
-        <v>355.10200095203129</v>
+        <v>355.10200095203101</v>
       </c>
       <c r="D6">
         <v>206.1883705411766</v>
@@ -669,7 +774,107 @@
         <v>520.15976665980008</v>
       </c>
       <c r="F6">
-        <v>308.85782953984278</v>
+        <v>207.85782953984301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>699.720795731973</v>
+      </c>
+      <c r="C7">
+        <v>365.10200095203101</v>
+      </c>
+      <c r="D7">
+        <v>216.18837054117699</v>
+      </c>
+      <c r="E7">
+        <v>530.15890000000002</v>
+      </c>
+      <c r="F7">
+        <v>210.85782953984301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>719.72079573197004</v>
+      </c>
+      <c r="C8">
+        <v>368.10200095203101</v>
+      </c>
+      <c r="D8">
+        <v>222.18837054117699</v>
+      </c>
+      <c r="E8">
+        <v>480.15890000000002</v>
+      </c>
+      <c r="F8">
+        <v>220.85782953984301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>759.720795731973</v>
+      </c>
+      <c r="C9">
+        <v>405.10200095203101</v>
+      </c>
+      <c r="D9">
+        <v>286.18837054117699</v>
+      </c>
+      <c r="E9">
+        <v>544.15890000000002</v>
+      </c>
+      <c r="F9">
+        <v>250.85782953984301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>760.720795731973</v>
+      </c>
+      <c r="C10">
+        <v>435.10200095203101</v>
+      </c>
+      <c r="D10">
+        <v>276.18837054117699</v>
+      </c>
+      <c r="E10">
+        <v>540.15890000000002</v>
+      </c>
+      <c r="F10">
+        <v>270.85782953984301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>780.720795731973</v>
+      </c>
+      <c r="C11">
+        <v>455.10200095203101</v>
+      </c>
+      <c r="D11">
+        <v>281.18837054117699</v>
+      </c>
+      <c r="E11">
+        <v>539.15890000000002</v>
+      </c>
+      <c r="F11">
+        <v>279.85782953984301</v>
       </c>
     </row>
   </sheetData>
@@ -679,9 +884,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -710,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4.5085080125366428</v>
+        <v>4.0085080125366401</v>
       </c>
       <c r="C2">
         <v>1.6541933368144921</v>
@@ -722,7 +929,7 @@
         <v>3.1078688252385192</v>
       </c>
       <c r="F2">
-        <v>1.0226802392191929</v>
+        <v>1.0426802392191901</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>4.5085080125366428</v>
+        <v>4.1085080125366398</v>
       </c>
       <c r="C3">
         <v>1.7627753556452941</v>
@@ -742,7 +949,7 @@
         <v>3.181239543045542</v>
       </c>
       <c r="F3">
-        <v>1.0226802392191929</v>
+        <v>1.0236802392191899</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>4.5085080125366428</v>
+        <v>3.90850801253664</v>
       </c>
       <c r="C4">
         <v>1.9688554693378579</v>
@@ -770,7 +977,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>4.5085080125366428</v>
+        <v>4.5085080125366401</v>
       </c>
       <c r="C5">
         <v>1.7112777054305699</v>
@@ -782,7 +989,7 @@
         <v>3.224474479537013</v>
       </c>
       <c r="F5">
-        <v>1.0226802392191929</v>
+        <v>1.0526802392191901</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,19 +997,119 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>4.5085080125366428</v>
+        <v>4.4085080125366396</v>
       </c>
       <c r="C6">
-        <v>1.361291237812124</v>
+        <v>1.30129123781212</v>
       </c>
       <c r="D6">
         <v>1.103327014838428</v>
       </c>
       <c r="E6">
-        <v>14.14185969100455</v>
+        <v>4.1418596910045</v>
       </c>
       <c r="F6">
-        <v>1.0226802392191929</v>
+        <v>1.08332701483843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>4.5085080125366401</v>
+      </c>
+      <c r="C7">
+        <v>1.6612912378121201</v>
+      </c>
+      <c r="D7">
+        <v>1.10332701483843</v>
+      </c>
+      <c r="E7">
+        <v>4.0418596910045004</v>
+      </c>
+      <c r="F7">
+        <v>1.10233270148384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>4.59850801253664</v>
+      </c>
+      <c r="C8">
+        <v>1.361291237812124</v>
+      </c>
+      <c r="D8">
+        <v>1.11532701483843</v>
+      </c>
+      <c r="E8">
+        <v>3.9418596910044998</v>
+      </c>
+      <c r="F8">
+        <v>1.11332701483843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>4.6085080125366398</v>
+      </c>
+      <c r="C9">
+        <v>1.4012912378121201</v>
+      </c>
+      <c r="D9">
+        <v>1.2933270148384299</v>
+      </c>
+      <c r="E9">
+        <v>4.0428596910044998</v>
+      </c>
+      <c r="F9">
+        <v>1.2033270148384301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>4.5185080125366399</v>
+      </c>
+      <c r="C10">
+        <v>1.4612912378121199</v>
+      </c>
+      <c r="D10">
+        <v>1.3033270148384299</v>
+      </c>
+      <c r="E10">
+        <v>4.2418596910044997</v>
+      </c>
+      <c r="F10">
+        <v>1.32332701483843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>4.1285080125366402</v>
+      </c>
+      <c r="C11">
+        <v>2.1612912378120002</v>
+      </c>
+      <c r="D11">
+        <v>1.40332701483843</v>
+      </c>
+      <c r="E11">
+        <v>4.1918596910044998</v>
+      </c>
+      <c r="F11">
+        <v>1.3033270148384299</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +1119,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -855,15 +1164,35 @@
         <v>8169.2184918678204</v>
       </c>
       <c r="F2">
-        <v>3848.9102960985851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3148.9102960985902</v>
+      </c>
+      <c r="H2">
+        <f>B2/3000</f>
+        <v>2.3917135341691447</v>
+      </c>
+      <c r="I2">
+        <f>C2/3000</f>
+        <v>1.949106488252597</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="I2:L11" si="0">D2/3000</f>
+        <v>1.075297886898579</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2.7230728306226069</v>
+      </c>
+      <c r="L2">
+        <f>F2/3000</f>
+        <v>1.0496367653661967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>7175.1406025074339</v>
+        <v>7075.1406025074302</v>
       </c>
       <c r="C3">
         <v>4633.587796116909</v>
@@ -875,15 +1204,35 @@
         <v>11899.42287902255</v>
       </c>
       <c r="F3">
-        <v>3848.9102960985851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3208.5102960985901</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">B3/3000</f>
+        <v>2.3583802008358101</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="2">C3/3000</f>
+        <v>1.5445292653723031</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.0825268180091629</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>3.9664742930075167</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="3">F3/3000</f>
+        <v>1.0695034320328634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>7175.1406025074339</v>
+        <v>7195.1406025074302</v>
       </c>
       <c r="C4">
         <v>6126.6490618477592</v>
@@ -895,15 +1244,35 @@
         <v>5610.0706527917346</v>
       </c>
       <c r="F4">
-        <v>3848.9102960985851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3548.9102960985902</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.3983802008358102</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2.0422163539492533</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.1773302238485233</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.8700235509305783</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>1.18297009869953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>7175.1406025074339</v>
+        <v>7199.1406025074302</v>
       </c>
       <c r="C5">
         <v>4741.4999291699633</v>
@@ -912,30 +1281,270 @@
         <v>3192.7711605176032</v>
       </c>
       <c r="E5">
-        <v>11213.56469654506</v>
+        <v>3213.5646965451001</v>
       </c>
       <c r="F5">
-        <v>3848.9102960985851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3048.9002960985899</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.3997135341691433</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.5804999763899878</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.0642570535058677</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.0711882321817001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1.0163000986995301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>7175.1406025074339</v>
+        <v>7375.1406025074302</v>
       </c>
       <c r="C6">
-        <v>5838.1368816317954</v>
+        <v>4838.1368816318</v>
       </c>
       <c r="D6">
         <v>3474.7549810331352</v>
       </c>
       <c r="E6">
-        <v>16265.12343001519</v>
+        <v>5610.0706527917346</v>
       </c>
       <c r="F6">
-        <v>3848.9102960985851</v>
+        <v>3348.9102960985902</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2.4583802008358102</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.6127122938772667</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.1582516603443784</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.8700235509305783</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1.1163034320328633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>7475.1406025074302</v>
+      </c>
+      <c r="C7">
+        <v>4998.1368816318</v>
+      </c>
+      <c r="D7">
+        <v>3494.7549810331402</v>
+      </c>
+      <c r="E7">
+        <v>5010.07065279173</v>
+      </c>
+      <c r="F7">
+        <v>3448.9102960985902</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.4917135341691434</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1.6660456272105999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.1649183270110468</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.6700235509305768</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1.1496367653661967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>7399.1406025074302</v>
+      </c>
+      <c r="C8">
+        <v>5838.1368816317954</v>
+      </c>
+      <c r="D8">
+        <v>3454.7549810331402</v>
+      </c>
+      <c r="E8">
+        <v>5690.07065279173</v>
+      </c>
+      <c r="F8">
+        <v>3468.9102960985902</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.4663802008358102</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.9460456272105984</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.1515849936777134</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.8966902175972433</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>1.1563034320328633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>7495.1406025074302</v>
+      </c>
+      <c r="C9">
+        <v>5798.1368816318</v>
+      </c>
+      <c r="D9">
+        <v>3574.7949810331402</v>
+      </c>
+      <c r="E9">
+        <v>5710.07065279173</v>
+      </c>
+      <c r="F9">
+        <v>3548.9102960985902</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>2.4983802008358102</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.9327122938772667</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.1915983270110466</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.9033568842639099</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>1.18297009869953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>7575.1406025074302</v>
+      </c>
+      <c r="C10">
+        <v>5938.1368816318</v>
+      </c>
+      <c r="D10">
+        <v>3574.7549810331402</v>
+      </c>
+      <c r="E10">
+        <v>4610.07065279173</v>
+      </c>
+      <c r="F10">
+        <v>3540.9102960985902</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.5250468675024766</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.9793789605439334</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.1915849936777134</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1.5366902175972434</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>1.1803034320328634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>7495.1406025074302</v>
+      </c>
+      <c r="C11">
+        <v>6238.1368816318</v>
+      </c>
+      <c r="D11">
+        <v>3401.7549810331402</v>
+      </c>
+      <c r="E11">
+        <v>5010.07065279173</v>
+      </c>
+      <c r="F11">
+        <v>3268.9102960985902</v>
+      </c>
+      <c r="H11">
+        <f>B11/3000</f>
+        <v>2.4983802008358102</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2.0793789605439335</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.1339183270110467</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1.6700235509305768</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>1.0896367653661967</v>
       </c>
     </row>
   </sheetData>
@@ -945,9 +1554,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -982,7 +1593,7 @@
         <v>1.361498690788316</v>
       </c>
       <c r="D2">
-        <v>0.92508380644279853</v>
+        <v>1.22508380644279</v>
       </c>
       <c r="E2">
         <v>1.4688995531759459</v>
@@ -1002,13 +1613,13 @@
         <v>1.6836421212451731</v>
       </c>
       <c r="D3">
-        <v>0.8896766478700352</v>
+        <v>1.2896766478700299</v>
       </c>
       <c r="E3">
         <v>1.892525927906527</v>
       </c>
       <c r="F3">
-        <v>1.658507087261704</v>
+        <v>1.2585070872616999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,13 +1627,13 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>3.128815542757811</v>
+        <v>4.1288155427578097</v>
       </c>
       <c r="C4">
         <v>1.2827000441475001</v>
       </c>
       <c r="D4">
-        <v>0.62810230849184145</v>
+        <v>1.32810230849184</v>
       </c>
       <c r="E4">
         <v>1.2955261728456751</v>
@@ -1036,10 +1647,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>1.681865353078456</v>
+        <v>3.9818653530784598</v>
       </c>
       <c r="C5">
-        <v>0.67832457443948035</v>
+        <v>0.78832457443948001</v>
       </c>
       <c r="D5">
         <v>0.62951689901790353</v>
@@ -1056,19 +1667,119 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>3.1550539776691831</v>
+        <v>4.1550539776691799</v>
       </c>
       <c r="C6">
-        <v>1.2855624433976141</v>
+        <v>1.2855624433976101</v>
       </c>
       <c r="D6">
-        <v>0.67366378779458191</v>
+        <v>0.87366378779458198</v>
       </c>
       <c r="E6">
-        <v>1.434974706451543</v>
+        <v>1.33497470645154</v>
       </c>
       <c r="F6">
         <v>1.2736480283340419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>4.0950539776691803</v>
+      </c>
+      <c r="C7">
+        <v>1.2855624433976141</v>
+      </c>
+      <c r="D7">
+        <v>1.29366378779458</v>
+      </c>
+      <c r="E7">
+        <v>1.4349747064515399</v>
+      </c>
+      <c r="F7">
+        <v>1.27364802812004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>3.9505397766917998</v>
+      </c>
+      <c r="C8">
+        <v>1.3255624433976101</v>
+      </c>
+      <c r="D8">
+        <v>1.27366378779458</v>
+      </c>
+      <c r="E8">
+        <v>1.53497470645154</v>
+      </c>
+      <c r="F8">
+        <v>1.2936480283340399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>3.9550539776691802</v>
+      </c>
+      <c r="C9">
+        <v>1.45556244339761</v>
+      </c>
+      <c r="D9">
+        <v>1.4036637877945799</v>
+      </c>
+      <c r="E9">
+        <v>1.49497470645154</v>
+      </c>
+      <c r="F9">
+        <v>1.37364802833404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>4.1010539776691797</v>
+      </c>
+      <c r="C10">
+        <v>1.20556244339761</v>
+      </c>
+      <c r="D10">
+        <v>1.2036637877945799</v>
+      </c>
+      <c r="E10">
+        <v>1.434974706451543</v>
+      </c>
+      <c r="F10">
+        <v>1.17364802833404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>4.2550539776691796</v>
+      </c>
+      <c r="C11">
+        <v>1.48556244339761</v>
+      </c>
+      <c r="D11">
+        <v>1.3636637877945801</v>
+      </c>
+      <c r="E11">
+        <v>1.53497470645154</v>
+      </c>
+      <c r="F11">
+        <v>1.35364802833404</v>
       </c>
     </row>
   </sheetData>
